--- a/Resileo_Automation/res/TestData.xlsx
+++ b/Resileo_Automation/res/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resilient FrameworkEvoluation2019\Resileo_Automation\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balaj\git\appedo\Resileo_Automation\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BE99AC-CDA3-44B9-AD90-1852A9B2564B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC17FCF2-941A-4269-9E4E-AC504D308897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>SUM Name</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>alosious.resileo@gmail.com</t>
+  </si>
+  <si>
+    <t>testing5235@gmail.com</t>
+  </si>
+  <si>
+    <t>Appedo</t>
   </si>
 </sst>
 </file>
@@ -761,10 +767,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0698F576-9530-4949-A7DF-082C30E9DB05}">
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,6 +858,14 @@
       </c>
       <c r="C10" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
